--- a/untranslated/downloads/data-excel/6.4.2.1.xlsx
+++ b/untranslated/downloads/data-excel/6.4.2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -187,7 +187,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,36 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -374,7 +404,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -441,6 +471,27 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -743,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -755,7 +806,7 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -766,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
@@ -777,11 +828,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" thickBot="1">
+    <row r="4" spans="1:10" ht="12.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -803,8 +854,11 @@
       <c r="I4" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -832,8 +886,11 @@
       <c r="I5" s="5">
         <v>8068.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J5" s="24">
+        <v>8017.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
@@ -849,8 +906,9 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -878,8 +936,12 @@
       <c r="I7" s="6">
         <v>7813.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="J7" s="25">
+        <f>J5-J8</f>
+        <v>7768.0999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -907,8 +969,11 @@
       <c r="I8" s="6">
         <v>254.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="25">
+        <v>249.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -924,8 +989,9 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
@@ -953,8 +1019,11 @@
       <c r="I10" s="11">
         <v>663.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="27">
+        <v>757.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
@@ -982,8 +1051,11 @@
       <c r="I11" s="11">
         <v>1012.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="27">
+        <v>984.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
@@ -1011,8 +1083,11 @@
       <c r="I12" s="11">
         <v>635</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="27">
+        <v>646.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="19" t="s">
         <v>43</v>
       </c>
@@ -1040,8 +1115,11 @@
       <c r="I13" s="14">
         <v>658.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="28">
+        <v>667.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
@@ -1069,8 +1147,11 @@
       <c r="I14" s="14">
         <v>1180.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="28">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -1098,8 +1179,11 @@
       <c r="I15" s="14">
         <v>1021.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="28">
+        <v>961.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
@@ -1127,8 +1211,11 @@
       <c r="I16" s="14">
         <v>2707</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="28">
+        <v>2664.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
@@ -1156,8 +1243,11 @@
       <c r="I17" s="14">
         <v>133.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" thickBot="1">
+      <c r="J17" s="28">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -1183,6 +1273,9 @@
         <v>57</v>
       </c>
       <c r="I18" s="17">
+        <v>57</v>
+      </c>
+      <c r="J18" s="29">
         <v>57</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/6.4.2.1.xlsx
+++ b/untranslated/downloads/data-excel/6.4.2.1.xlsx
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -806,7 +806,7 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
@@ -828,11 +828,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" thickBot="1">
+    <row r="4" spans="1:11" ht="12.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -857,8 +857,11 @@
       <c r="J4" s="23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -889,8 +892,11 @@
       <c r="J5" s="24">
         <v>8017.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="K5" s="24">
+        <v>7999.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
@@ -907,8 +913,9 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -940,8 +947,12 @@
         <f>J5-J8</f>
         <v>7768.0999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K7" s="25">
+        <f>K5-K8</f>
+        <v>7746.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -972,8 +983,11 @@
       <c r="J8" s="25">
         <v>249.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="25">
+        <v>252.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -990,8 +1004,9 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
@@ -1022,8 +1037,11 @@
       <c r="J10" s="27">
         <v>757.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="27">
+        <v>690.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
@@ -1054,8 +1072,11 @@
       <c r="J11" s="27">
         <v>984.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="27">
+        <v>968.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
@@ -1086,8 +1107,11 @@
       <c r="J12" s="27">
         <v>646.20000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="27">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="19" t="s">
         <v>43</v>
       </c>
@@ -1118,8 +1142,11 @@
       <c r="J13" s="28">
         <v>667.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="28">
+        <v>691.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
@@ -1150,8 +1177,11 @@
       <c r="J14" s="28">
         <v>1147</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="28">
+        <v>1248.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -1182,8 +1212,11 @@
       <c r="J15" s="28">
         <v>961.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="28">
+        <v>959.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
@@ -1214,8 +1247,11 @@
       <c r="J16" s="28">
         <v>2664.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="28">
+        <v>2596.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
@@ -1246,8 +1282,11 @@
       <c r="J17" s="28">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" thickBot="1">
+      <c r="K17" s="28">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -1276,6 +1315,9 @@
         <v>57</v>
       </c>
       <c r="J18" s="29">
+        <v>57</v>
+      </c>
+      <c r="K18" s="29">
         <v>57</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/6.4.2.1.xlsx
+++ b/untranslated/downloads/data-excel/6.4.2.1.xlsx
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -806,7 +806,7 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:12" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>33</v>
       </c>
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
@@ -828,11 +828,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickBot="1">
+    <row r="4" spans="1:12" ht="12.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -860,8 +860,11 @@
       <c r="K4" s="23">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -895,8 +898,11 @@
       <c r="K5" s="24">
         <v>7999.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L5" s="24">
+        <v>8800.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
@@ -914,8 +920,9 @@
       <c r="I6" s="6"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -951,8 +958,12 @@
         <f>K5-K8</f>
         <v>7746.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="L7" s="25">
+        <f>L5-L8</f>
+        <v>8542.2000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -986,8 +997,11 @@
       <c r="K8" s="25">
         <v>252.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="25">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
@@ -1005,8 +1019,9 @@
       <c r="I9" s="9"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
@@ -1040,8 +1055,11 @@
       <c r="K10" s="27">
         <v>690.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="27">
+        <v>683.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
@@ -1075,8 +1093,11 @@
       <c r="K11" s="27">
         <v>968.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="27">
+        <v>1101.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
@@ -1110,8 +1131,11 @@
       <c r="K12" s="27">
         <v>655</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="27">
+        <v>714.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
         <v>43</v>
       </c>
@@ -1145,8 +1169,11 @@
       <c r="K13" s="28">
         <v>691.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="28">
+        <v>757.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
@@ -1180,8 +1207,11 @@
       <c r="K14" s="28">
         <v>1248.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="28">
+        <v>1383.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -1215,8 +1245,11 @@
       <c r="K15" s="28">
         <v>959.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="28">
+        <v>1023.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
@@ -1250,8 +1283,11 @@
       <c r="K16" s="28">
         <v>2596.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="28">
+        <v>2929.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
@@ -1285,8 +1321,11 @@
       <c r="K17" s="28">
         <v>133.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" thickBot="1">
+      <c r="L17" s="28">
+        <v>148.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
@@ -1318,6 +1357,9 @@
         <v>57</v>
       </c>
       <c r="K18" s="29">
+        <v>57</v>
+      </c>
+      <c r="L18" s="29">
         <v>57</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/6.4.2.1.xlsx
+++ b/untranslated/downloads/data-excel/6.4.2.1.xlsx
@@ -76,9 +76,6 @@
     <t>по видам источников</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4.2.1. Общий объем забора пресной воды </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Ош ш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4.2.1 Общий объем забора пресной воды </t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -808,24 +808,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
@@ -866,13 +866,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <v>7658</v>
@@ -899,18 +899,18 @@
         <v>7999.5</v>
       </c>
       <c r="L5" s="24">
-        <v>8800.6</v>
+        <v>8741.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -924,13 +924,13 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6">
         <v>7432.4</v>
@@ -959,19 +959,18 @@
         <v>7746.6</v>
       </c>
       <c r="L7" s="25">
-        <f>L5-L8</f>
-        <v>8542.2000000000007</v>
+        <v>8483.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6">
         <v>225.6</v>
@@ -1003,13 +1002,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1023,13 +1022,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6">
         <v>615.1</v>
@@ -1061,13 +1060,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6">
         <v>781.4</v>
@@ -1099,13 +1098,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6">
         <v>628.5</v>
@@ -1137,13 +1136,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13">
         <v>607.70000000000005</v>
@@ -1175,13 +1174,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13">
         <v>1133</v>
@@ -1208,18 +1207,18 @@
         <v>1248.5</v>
       </c>
       <c r="L14" s="28">
-        <v>1383.3</v>
+        <v>1327.6</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="13">
         <v>882.9</v>
@@ -1251,13 +1250,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="13">
         <v>2833.6</v>
@@ -1289,13 +1288,13 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="13">
         <v>118.8</v>
@@ -1327,13 +1326,13 @@
     </row>
     <row r="18" spans="1:12" ht="12.75" thickBot="1">
       <c r="A18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="16">
         <v>57.1</v>
@@ -1360,7 +1359,7 @@
         <v>57</v>
       </c>
       <c r="L18" s="29">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/6.4.2.1.xlsx
+++ b/untranslated/downloads/data-excel/6.4.2.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Всего </t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">6.4.2.1 Общий объем забора пресной воды </t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталыштары</t>
+  </si>
+  <si>
+    <t>Наименование показателей</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -794,11 +803,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -806,7 +813,7 @@
     <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
@@ -817,7 +824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -828,14 +835,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="4">
         <v>2014</v>
       </c>
@@ -863,8 +876,11 @@
       <c r="L4" s="23">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -901,8 +917,11 @@
       <c r="L5" s="24">
         <v>8741.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M5" s="24">
+        <v>8872.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
@@ -921,8 +940,9 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -961,8 +981,11 @@
       <c r="L7" s="25">
         <v>8483.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M7" s="25">
+        <v>8601.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -999,8 +1022,11 @@
       <c r="L8" s="25">
         <v>258.39999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -1019,8 +1045,9 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
@@ -1057,8 +1084,11 @@
       <c r="L10" s="27">
         <v>683.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="27">
+        <v>723.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>40</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="L11" s="27">
         <v>1101.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="27">
+        <v>1205.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>41</v>
       </c>
@@ -1133,8 +1166,11 @@
       <c r="L12" s="27">
         <v>714.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="27">
+        <v>779.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>42</v>
       </c>
@@ -1171,8 +1207,11 @@
       <c r="L13" s="28">
         <v>757.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="28">
+        <v>829.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -1209,8 +1248,11 @@
       <c r="L14" s="28">
         <v>1327.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="28">
+        <v>1314.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>44</v>
       </c>
@@ -1247,8 +1289,11 @@
       <c r="L15" s="28">
         <v>1023.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="28">
+        <v>1034.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1285,8 +1330,11 @@
       <c r="L16" s="28">
         <v>2929.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="28">
+        <v>2762.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>46</v>
       </c>
@@ -1323,8 +1371,11 @@
       <c r="L17" s="28">
         <v>148.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" thickBot="1">
+      <c r="M17" s="28">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
@@ -1360,6 +1411,9 @@
       </c>
       <c r="L18" s="29">
         <v>54</v>
+      </c>
+      <c r="M18" s="29">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
